--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_Fiets.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_conc_Auto_Fiets.xlsx
@@ -2496,7 +2496,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1.389477485419104</v>
+        <v>1.389477485419103</v>
       </c>
       <c r="C126">
         <v>1.453813443557942</v>
